--- a/MEDIA/0012_拉亞直營營業額(2019-10-01~2019-10-31).xlsx
+++ b/MEDIA/0012_拉亞直營營業額(2019-10-01~2019-10-31).xlsx
@@ -514,34 +514,34 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1490</v>
+        <v>18342</v>
       </c>
       <c r="E3" t="n">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="F3" t="n">
-        <v>1200</v>
+        <v>7167</v>
       </c>
       <c r="G3" t="n">
-        <v>80.5</v>
+        <v>39.1</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="I3" t="n">
-        <v>170</v>
+        <v>3450</v>
       </c>
       <c r="J3" t="n">
-        <v>11.4</v>
+        <v>18.8</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="L3" t="n">
-        <v>120</v>
+        <v>1995</v>
       </c>
       <c r="M3" t="n">
-        <v>8.1</v>
+        <v>10.9</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -553,22 +553,22 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>4760</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -580,10 +580,10 @@
         <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>32</v>
+        <v>167</v>
       </c>
       <c r="AA3" t="n">
-        <v>47</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4">
@@ -603,34 +603,34 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3323</v>
+        <v>22308</v>
       </c>
       <c r="E4" t="n">
+        <v>91</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8213</v>
+      </c>
+      <c r="G4" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="H4" t="n">
         <v>24</v>
       </c>
-      <c r="F4" t="n">
-        <v>1053</v>
-      </c>
-      <c r="G4" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
       <c r="I4" t="n">
-        <v>2270</v>
+        <v>4605</v>
       </c>
       <c r="J4" t="n">
-        <v>68.3</v>
+        <v>20.6</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>3840</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -642,22 +642,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1055</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>4595</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>20.6</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>26</v>
+        <v>175</v>
       </c>
       <c r="AA4" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5">
@@ -692,34 +692,34 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1790</v>
+        <v>20029</v>
       </c>
       <c r="E5" t="n">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="F5" t="n">
-        <v>1560</v>
+        <v>8699</v>
       </c>
       <c r="G5" t="n">
-        <v>87.2</v>
+        <v>43.4</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="I5" t="n">
-        <v>90</v>
+        <v>4275</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>21.3</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="L5" t="n">
-        <v>25</v>
+        <v>2425</v>
       </c>
       <c r="M5" t="n">
-        <v>1.4</v>
+        <v>12.1</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="U5" t="n">
-        <v>115</v>
+        <v>4630</v>
       </c>
       <c r="V5" t="n">
-        <v>6.4</v>
+        <v>23.1</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -758,10 +758,10 @@
         <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>37</v>
+        <v>205</v>
       </c>
       <c r="AA5" t="n">
-        <v>48</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6">
@@ -781,34 +781,34 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1633</v>
+        <v>21763</v>
       </c>
       <c r="E6" t="n">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="F6" t="n">
-        <v>1258</v>
+        <v>7727</v>
       </c>
       <c r="G6" t="n">
-        <v>77</v>
+        <v>35.5</v>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="I6" t="n">
-        <v>375</v>
+        <v>5715</v>
       </c>
       <c r="J6" t="n">
-        <v>23</v>
+        <v>26.3</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1961</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -820,22 +820,22 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1545</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>4815</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>22.1</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -847,10 +847,10 @@
         <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>40</v>
+        <v>193</v>
       </c>
       <c r="AA6" t="n">
-        <v>41</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7">
@@ -870,34 +870,34 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1650</v>
+        <v>21554</v>
       </c>
       <c r="E7" t="n">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="F7" t="n">
-        <v>1235</v>
+        <v>8455</v>
       </c>
       <c r="G7" t="n">
-        <v>74.8</v>
+        <v>39.2</v>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="I7" t="n">
-        <v>415</v>
+        <v>4949</v>
       </c>
       <c r="J7" t="n">
-        <v>25.2</v>
+        <v>23</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>3385</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>4765</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>22.1</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -936,10 +936,10 @@
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="AA7" t="n">
-        <v>61</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8">
@@ -959,34 +959,34 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1172</v>
+        <v>41414</v>
       </c>
       <c r="E8" t="n">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="F8" t="n">
-        <v>1147</v>
+        <v>16888</v>
       </c>
       <c r="G8" t="n">
-        <v>97.90000000000001</v>
+        <v>40.8</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="I8" t="n">
-        <v>25</v>
+        <v>9016</v>
       </c>
       <c r="J8" t="n">
-        <v>2.1</v>
+        <v>21.8</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>3685</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -998,22 +998,22 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>575</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>11250</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1025,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>21</v>
+        <v>271</v>
       </c>
       <c r="AA8" t="n">
-        <v>56</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9">
@@ -1048,34 +1048,34 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1415</v>
+        <v>25497</v>
       </c>
       <c r="E9" t="n">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="F9" t="n">
-        <v>980</v>
+        <v>9697</v>
       </c>
       <c r="G9" t="n">
-        <v>69.3</v>
+        <v>38</v>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="I9" t="n">
-        <v>435</v>
+        <v>4480</v>
       </c>
       <c r="J9" t="n">
-        <v>30.7</v>
+        <v>17.6</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1435</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -1087,22 +1087,22 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1065</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>8820</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>34.6</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>23</v>
+        <v>207</v>
       </c>
       <c r="AA9" t="n">
-        <v>62</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10">
@@ -1137,34 +1137,34 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1510</v>
+        <v>20933</v>
       </c>
       <c r="E10" t="n">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="F10" t="n">
-        <v>1225</v>
+        <v>7898</v>
       </c>
       <c r="G10" t="n">
-        <v>81.09999999999999</v>
+        <v>37.7</v>
       </c>
       <c r="H10" t="n">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="I10" t="n">
-        <v>285</v>
+        <v>3915</v>
       </c>
       <c r="J10" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1345</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>6825</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>32.6</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>30</v>
+        <v>172</v>
       </c>
       <c r="AA10" t="n">
-        <v>50</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11">
@@ -1226,61 +1226,61 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1225</v>
+        <v>22080</v>
       </c>
       <c r="E11" t="n">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="F11" t="n">
-        <v>1105</v>
+        <v>8725</v>
       </c>
       <c r="G11" t="n">
-        <v>90.2</v>
+        <v>39.5</v>
       </c>
       <c r="H11" t="n">
+        <v>41</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4615</v>
+      </c>
+      <c r="J11" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K11" t="n">
+        <v>16</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2115</v>
+      </c>
+      <c r="M11" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
         <v>1</v>
       </c>
-      <c r="I11" t="n">
-        <v>120</v>
-      </c>
-      <c r="J11" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>6465</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>29.3</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1292,10 +1292,10 @@
         <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>23</v>
+        <v>189</v>
       </c>
       <c r="AA11" t="n">
-        <v>53</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12">
@@ -1315,34 +1315,34 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1360</v>
+        <v>35566</v>
       </c>
       <c r="E12" t="n">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="F12" t="n">
-        <v>525</v>
+        <v>11898</v>
       </c>
       <c r="G12" t="n">
-        <v>38.6</v>
+        <v>33.5</v>
       </c>
       <c r="H12" t="n">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="I12" t="n">
-        <v>810</v>
+        <v>10028</v>
       </c>
       <c r="J12" t="n">
-        <v>59.6</v>
+        <v>28.2</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>2605</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1354,22 +1354,22 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="R12" t="n">
-        <v>25</v>
+        <v>3835</v>
       </c>
       <c r="S12" t="n">
-        <v>1.8</v>
+        <v>10.8</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>7200</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>20.2</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1381,10 +1381,10 @@
         <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>26</v>
+        <v>238</v>
       </c>
       <c r="AA12" t="n">
-        <v>52</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13">
@@ -1404,34 +1404,34 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1434</v>
+        <v>33212</v>
       </c>
       <c r="E13" t="n">
+        <v>73</v>
+      </c>
+      <c r="F13" t="n">
+        <v>10610</v>
+      </c>
+      <c r="G13" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="H13" t="n">
+        <v>63</v>
+      </c>
+      <c r="I13" t="n">
+        <v>6777</v>
+      </c>
+      <c r="J13" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="K13" t="n">
         <v>17</v>
       </c>
-      <c r="F13" t="n">
-        <v>600</v>
-      </c>
-      <c r="G13" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="H13" t="n">
-        <v>12</v>
-      </c>
-      <c r="I13" t="n">
-        <v>785</v>
-      </c>
-      <c r="J13" t="n">
-        <v>54.7</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>2900</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1452,13 +1452,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="U13" t="n">
-        <v>49</v>
+        <v>12925</v>
       </c>
       <c r="V13" t="n">
-        <v>3.4</v>
+        <v>38.9</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1470,10 +1470,10 @@
         <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>30</v>
+        <v>223</v>
       </c>
       <c r="AA13" t="n">
-        <v>48</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14">
@@ -1493,34 +1493,34 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1290</v>
+        <v>35505</v>
       </c>
       <c r="E14" t="n">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="F14" t="n">
-        <v>375</v>
+        <v>10584</v>
       </c>
       <c r="G14" t="n">
-        <v>29.1</v>
+        <v>29.8</v>
       </c>
       <c r="H14" t="n">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="I14" t="n">
-        <v>830</v>
+        <v>11366</v>
       </c>
       <c r="J14" t="n">
-        <v>64.3</v>
+        <v>32</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>2635</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -1532,22 +1532,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R14" t="n">
-        <v>85</v>
+        <v>900</v>
       </c>
       <c r="S14" t="n">
-        <v>6.6</v>
+        <v>2.5</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>10020</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>28.2</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1559,10 +1559,10 @@
         <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>22</v>
+        <v>241</v>
       </c>
       <c r="AA14" t="n">
-        <v>59</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15">
@@ -1582,34 +1582,34 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1045</v>
+        <v>38845</v>
       </c>
       <c r="E15" t="n">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="F15" t="n">
-        <v>1045</v>
+        <v>14855</v>
       </c>
       <c r="G15" t="n">
-        <v>100</v>
+        <v>38.2</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>9580</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>24.7</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>2970</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -1630,13 +1630,13 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>11440</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>29.5</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1648,10 +1648,10 @@
         <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>22</v>
+        <v>254</v>
       </c>
       <c r="AA15" t="n">
-        <v>48</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16">
@@ -1671,34 +1671,34 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1225</v>
+        <v>22515</v>
       </c>
       <c r="E16" t="n">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="F16" t="n">
-        <v>385</v>
+        <v>7000</v>
       </c>
       <c r="G16" t="n">
-        <v>31.4</v>
+        <v>31.1</v>
       </c>
       <c r="H16" t="n">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="I16" t="n">
-        <v>450</v>
+        <v>7275</v>
       </c>
       <c r="J16" t="n">
-        <v>36.7</v>
+        <v>32.3</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1360</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -1710,22 +1710,22 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="R16" t="n">
-        <v>390</v>
+        <v>1315</v>
       </c>
       <c r="S16" t="n">
-        <v>31.8</v>
+        <v>5.8</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>5565</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>24.7</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1737,10 +1737,10 @@
         <v>0</v>
       </c>
       <c r="Z16" t="n">
-        <v>20</v>
+        <v>189</v>
       </c>
       <c r="AA16" t="n">
-        <v>61</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17">
@@ -1760,34 +1760,34 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1203</v>
+        <v>19128</v>
       </c>
       <c r="E17" t="n">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="F17" t="n">
-        <v>495</v>
+        <v>4725</v>
       </c>
       <c r="G17" t="n">
-        <v>41.1</v>
+        <v>24.7</v>
       </c>
       <c r="H17" t="n">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="I17" t="n">
-        <v>708</v>
+        <v>5708</v>
       </c>
       <c r="J17" t="n">
-        <v>58.9</v>
+        <v>29.8</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>2415</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>12.6</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -1808,13 +1808,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>6280</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>32.8</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1826,10 +1826,10 @@
         <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>22</v>
+        <v>158</v>
       </c>
       <c r="AA17" t="n">
-        <v>55</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18">
@@ -1849,34 +1849,34 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1156</v>
+        <v>20775</v>
       </c>
       <c r="E18" t="n">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="F18" t="n">
-        <v>866</v>
+        <v>5926</v>
       </c>
       <c r="G18" t="n">
-        <v>74.90000000000001</v>
+        <v>28.5</v>
       </c>
       <c r="H18" t="n">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="I18" t="n">
-        <v>290</v>
+        <v>5399</v>
       </c>
       <c r="J18" t="n">
-        <v>25.1</v>
+        <v>26</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1860</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -1897,13 +1897,13 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>7590</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>36.5</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="Z18" t="n">
-        <v>25</v>
+        <v>182</v>
       </c>
       <c r="AA18" t="n">
-        <v>46</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19">
@@ -1938,34 +1938,34 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1425</v>
+        <v>22075</v>
       </c>
       <c r="E19" t="n">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="F19" t="n">
-        <v>1290</v>
+        <v>5755</v>
       </c>
       <c r="G19" t="n">
-        <v>90.5</v>
+        <v>26.1</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="I19" t="n">
-        <v>135</v>
+        <v>4255</v>
       </c>
       <c r="J19" t="n">
-        <v>9.5</v>
+        <v>19.3</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1640</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -1986,13 +1986,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>10425</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>47.2</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2004,10 +2004,10 @@
         <v>0</v>
       </c>
       <c r="Z19" t="n">
-        <v>29</v>
+        <v>189</v>
       </c>
       <c r="AA19" t="n">
-        <v>49</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20">
@@ -2027,34 +2027,34 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1300</v>
+        <v>16093</v>
       </c>
       <c r="E20" t="n">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="F20" t="n">
-        <v>565</v>
+        <v>4750</v>
       </c>
       <c r="G20" t="n">
-        <v>43.5</v>
+        <v>29.5</v>
       </c>
       <c r="H20" t="n">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="I20" t="n">
-        <v>415</v>
+        <v>3963</v>
       </c>
       <c r="J20" t="n">
-        <v>31.9</v>
+        <v>24.6</v>
       </c>
       <c r="K20" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="L20" t="n">
-        <v>135</v>
+        <v>2720</v>
       </c>
       <c r="M20" t="n">
-        <v>10.4</v>
+        <v>16.9</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -2075,13 +2075,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="U20" t="n">
-        <v>185</v>
+        <v>4660</v>
       </c>
       <c r="V20" t="n">
-        <v>14.2</v>
+        <v>29</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2093,10 +2093,10 @@
         <v>0</v>
       </c>
       <c r="Z20" t="n">
-        <v>23</v>
+        <v>143</v>
       </c>
       <c r="AA20" t="n">
-        <v>57</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21">
@@ -2116,34 +2116,34 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1102</v>
+        <v>32590</v>
       </c>
       <c r="E21" t="n">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="F21" t="n">
-        <v>522</v>
+        <v>10587</v>
       </c>
       <c r="G21" t="n">
-        <v>47.4</v>
+        <v>32.5</v>
       </c>
       <c r="H21" t="n">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="I21" t="n">
-        <v>280</v>
+        <v>7513</v>
       </c>
       <c r="J21" t="n">
-        <v>25.4</v>
+        <v>23.1</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>3460</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>10.6</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -2164,13 +2164,13 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="U21" t="n">
-        <v>300</v>
+        <v>11030</v>
       </c>
       <c r="V21" t="n">
-        <v>27.2</v>
+        <v>33.8</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="Z21" t="n">
-        <v>19</v>
+        <v>226</v>
       </c>
       <c r="AA21" t="n">
-        <v>58</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22">
@@ -2205,34 +2205,34 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1150</v>
+        <v>41305</v>
       </c>
       <c r="E22" t="n">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="F22" t="n">
-        <v>505</v>
+        <v>12950</v>
       </c>
       <c r="G22" t="n">
-        <v>43.9</v>
+        <v>31.4</v>
       </c>
       <c r="H22" t="n">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="I22" t="n">
-        <v>640</v>
+        <v>11450</v>
       </c>
       <c r="J22" t="n">
-        <v>55.7</v>
+        <v>27.7</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1560</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="U22" t="n">
-        <v>5</v>
+        <v>15345</v>
       </c>
       <c r="V22" t="n">
-        <v>0.4</v>
+        <v>37.2</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2271,10 +2271,10 @@
         <v>0</v>
       </c>
       <c r="Z22" t="n">
-        <v>19</v>
+        <v>266</v>
       </c>
       <c r="AA22" t="n">
-        <v>61</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23">
@@ -2294,34 +2294,34 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1408</v>
+        <v>23732</v>
       </c>
       <c r="E23" t="n">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="F23" t="n">
-        <v>453</v>
+        <v>7819</v>
       </c>
       <c r="G23" t="n">
-        <v>32.2</v>
+        <v>32.9</v>
       </c>
       <c r="H23" t="n">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="I23" t="n">
-        <v>785</v>
+        <v>5513</v>
       </c>
       <c r="J23" t="n">
-        <v>55.8</v>
+        <v>23.2</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>2945</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>12.4</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -2333,22 +2333,22 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="R23" t="n">
-        <v>170</v>
+        <v>1145</v>
       </c>
       <c r="S23" t="n">
-        <v>12.1</v>
+        <v>4.8</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>6310</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>26.6</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2360,10 +2360,10 @@
         <v>0</v>
       </c>
       <c r="Z23" t="n">
-        <v>30</v>
+        <v>192</v>
       </c>
       <c r="AA23" t="n">
-        <v>47</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24">
@@ -2383,34 +2383,34 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>995</v>
+        <v>22903</v>
       </c>
       <c r="E24" t="n">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="F24" t="n">
-        <v>845</v>
+        <v>8003</v>
       </c>
       <c r="G24" t="n">
-        <v>84.90000000000001</v>
+        <v>34.9</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="I24" t="n">
-        <v>150</v>
+        <v>3485</v>
       </c>
       <c r="J24" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>2440</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>10.7</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -2422,22 +2422,22 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>675</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>8300</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>36.2</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2449,10 +2449,10 @@
         <v>0</v>
       </c>
       <c r="Z24" t="n">
-        <v>21</v>
+        <v>187</v>
       </c>
       <c r="AA24" t="n">
-        <v>47</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25">
@@ -2472,34 +2472,34 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1035</v>
+        <v>20280</v>
       </c>
       <c r="E25" t="n">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="F25" t="n">
-        <v>595</v>
+        <v>5215</v>
       </c>
       <c r="G25" t="n">
-        <v>57.5</v>
+        <v>25.7</v>
       </c>
       <c r="H25" t="n">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="I25" t="n">
-        <v>440</v>
+        <v>4675</v>
       </c>
       <c r="J25" t="n">
-        <v>42.5</v>
+        <v>23.1</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>3105</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>15.3</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -2520,13 +2520,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>7285</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>35.9</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2538,10 +2538,10 @@
         <v>0</v>
       </c>
       <c r="Z25" t="n">
-        <v>26</v>
+        <v>167</v>
       </c>
       <c r="AA25" t="n">
-        <v>40</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26">
@@ -2561,35 +2561,35 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1254</v>
+        <v>20309</v>
       </c>
       <c r="E26" t="n">
+        <v>59</v>
+      </c>
+      <c r="F26" t="n">
+        <v>6289</v>
+      </c>
+      <c r="G26" t="n">
+        <v>31</v>
+      </c>
+      <c r="H26" t="n">
+        <v>49</v>
+      </c>
+      <c r="I26" t="n">
+        <v>5240</v>
+      </c>
+      <c r="J26" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="K26" t="n">
+        <v>24</v>
+      </c>
+      <c r="L26" t="n">
+        <v>2650</v>
+      </c>
+      <c r="M26" t="n">
         <v>13</v>
       </c>
-      <c r="F26" t="n">
-        <v>689</v>
-      </c>
-      <c r="G26" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="H26" t="n">
-        <v>6</v>
-      </c>
-      <c r="I26" t="n">
-        <v>430</v>
-      </c>
-      <c r="J26" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
@@ -2609,13 +2609,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="U26" t="n">
-        <v>135</v>
+        <v>6130</v>
       </c>
       <c r="V26" t="n">
-        <v>10.8</v>
+        <v>30.2</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2627,10 +2627,10 @@
         <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>20</v>
+        <v>171</v>
       </c>
       <c r="AA26" t="n">
-        <v>63</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27">
@@ -2650,34 +2650,34 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>955</v>
+        <v>21841</v>
       </c>
       <c r="E27" t="n">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="F27" t="n">
-        <v>540</v>
+        <v>7141</v>
       </c>
       <c r="G27" t="n">
-        <v>56.5</v>
+        <v>32.7</v>
       </c>
       <c r="H27" t="n">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="I27" t="n">
-        <v>415</v>
+        <v>5120</v>
       </c>
       <c r="J27" t="n">
-        <v>43.5</v>
+        <v>23.4</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>1955</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -2698,13 +2698,13 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>7625</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>34.9</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -2716,10 +2716,10 @@
         <v>0</v>
       </c>
       <c r="Z27" t="n">
-        <v>21</v>
+        <v>175</v>
       </c>
       <c r="AA27" t="n">
-        <v>45</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28">
@@ -2739,34 +2739,34 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1194</v>
+        <v>30439</v>
       </c>
       <c r="E28" t="n">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="F28" t="n">
-        <v>559</v>
+        <v>11350</v>
       </c>
       <c r="G28" t="n">
-        <v>46.8</v>
+        <v>37.3</v>
       </c>
       <c r="H28" t="n">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="I28" t="n">
-        <v>635</v>
+        <v>6549</v>
       </c>
       <c r="J28" t="n">
-        <v>53.2</v>
+        <v>21.5</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1830</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -2787,13 +2787,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>10710</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>35.2</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2805,10 +2805,10 @@
         <v>0</v>
       </c>
       <c r="Z28" t="n">
-        <v>27</v>
+        <v>229</v>
       </c>
       <c r="AA28" t="n">
-        <v>44</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29">
@@ -2828,34 +2828,34 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1400</v>
+        <v>39182</v>
       </c>
       <c r="E29" t="n">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="F29" t="n">
-        <v>945</v>
+        <v>15852</v>
       </c>
       <c r="G29" t="n">
-        <v>67.5</v>
+        <v>40.5</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="I29" t="n">
-        <v>200</v>
+        <v>7155</v>
       </c>
       <c r="J29" t="n">
-        <v>14.3</v>
+        <v>18.3</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>2575</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -2876,13 +2876,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="U29" t="n">
-        <v>255</v>
+        <v>13600</v>
       </c>
       <c r="V29" t="n">
-        <v>18.2</v>
+        <v>34.7</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2894,10 +2894,10 @@
         <v>0</v>
       </c>
       <c r="Z29" t="n">
-        <v>15</v>
+        <v>232</v>
       </c>
       <c r="AA29" t="n">
-        <v>93</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30">
@@ -2917,34 +2917,34 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>955</v>
+        <v>20135</v>
       </c>
       <c r="E30" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="F30" t="n">
-        <v>440</v>
+        <v>6990</v>
       </c>
       <c r="G30" t="n">
-        <v>46.1</v>
+        <v>34.7</v>
       </c>
       <c r="H30" t="n">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="I30" t="n">
-        <v>515</v>
+        <v>3925</v>
       </c>
       <c r="J30" t="n">
-        <v>53.9</v>
+        <v>19.5</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>2460</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>12.2</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -2965,13 +2965,13 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>6760</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>33.6</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -2983,10 +2983,10 @@
         <v>0</v>
       </c>
       <c r="Z30" t="n">
-        <v>21</v>
+        <v>168</v>
       </c>
       <c r="AA30" t="n">
-        <v>45</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31">
@@ -3006,34 +3006,34 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1040</v>
+        <v>16660</v>
       </c>
       <c r="E31" t="n">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="F31" t="n">
-        <v>475</v>
+        <v>3605</v>
       </c>
       <c r="G31" t="n">
-        <v>45.7</v>
+        <v>21.6</v>
       </c>
       <c r="H31" t="n">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="I31" t="n">
-        <v>565</v>
+        <v>3150</v>
       </c>
       <c r="J31" t="n">
-        <v>54.3</v>
+        <v>18.9</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1205</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -3054,13 +3054,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>8700</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>52.2</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3072,10 +3072,10 @@
         <v>0</v>
       </c>
       <c r="Z31" t="n">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="AA31" t="n">
-        <v>45</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32">
@@ -3095,34 +3095,34 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>855</v>
+        <v>15011</v>
       </c>
       <c r="E32" t="n">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="F32" t="n">
-        <v>685</v>
+        <v>5256</v>
       </c>
       <c r="G32" t="n">
-        <v>80.09999999999999</v>
+        <v>35</v>
       </c>
       <c r="H32" t="n">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="I32" t="n">
-        <v>170</v>
+        <v>2955</v>
       </c>
       <c r="J32" t="n">
-        <v>19.9</v>
+        <v>19.7</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1950</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -3143,13 +3143,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>4850</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>32.3</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3161,10 +3161,10 @@
         <v>0</v>
       </c>
       <c r="Z32" t="n">
-        <v>22</v>
+        <v>153</v>
       </c>
       <c r="AA32" t="n">
-        <v>39</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33">
@@ -3184,34 +3184,34 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1195</v>
+        <v>14871</v>
       </c>
       <c r="E33" t="n">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="F33" t="n">
-        <v>750</v>
+        <v>5472</v>
       </c>
       <c r="G33" t="n">
-        <v>62.8</v>
+        <v>36.8</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="I33" t="n">
-        <v>80</v>
+        <v>4329</v>
       </c>
       <c r="J33" t="n">
-        <v>6.7</v>
+        <v>29.1</v>
       </c>
       <c r="K33" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L33" t="n">
-        <v>85</v>
+        <v>860</v>
       </c>
       <c r="M33" t="n">
-        <v>7.1</v>
+        <v>5.8</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="U33" t="n">
-        <v>280</v>
+        <v>4210</v>
       </c>
       <c r="V33" t="n">
-        <v>23.4</v>
+        <v>28.3</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3250,10 +3250,10 @@
         <v>0</v>
       </c>
       <c r="Z33" t="n">
-        <v>22</v>
+        <v>139</v>
       </c>
       <c r="AA33" t="n">
-        <v>54</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34">
@@ -3265,34 +3265,34 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>41184</v>
+        <v>776892</v>
       </c>
       <c r="E34" t="n">
-        <v>533</v>
+        <v>2271</v>
       </c>
       <c r="F34" t="n">
-        <v>24912</v>
+        <v>266101</v>
       </c>
       <c r="G34" t="n">
-        <v>60.5</v>
+        <v>34.3</v>
       </c>
       <c r="H34" t="n">
-        <v>209</v>
+        <v>1648</v>
       </c>
       <c r="I34" t="n">
-        <v>13913</v>
+        <v>180430</v>
       </c>
       <c r="J34" t="n">
-        <v>33.8</v>
+        <v>23.2</v>
       </c>
       <c r="K34" t="n">
-        <v>5</v>
+        <v>561</v>
       </c>
       <c r="L34" t="n">
-        <v>365</v>
+        <v>72286</v>
       </c>
       <c r="M34" t="n">
-        <v>0.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -3304,22 +3304,22 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="R34" t="n">
-        <v>670</v>
+        <v>14190</v>
       </c>
       <c r="S34" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="T34" t="n">
-        <v>12</v>
+        <v>1451</v>
       </c>
       <c r="U34" t="n">
-        <v>1324</v>
+        <v>243885</v>
       </c>
       <c r="V34" t="n">
-        <v>3.2</v>
+        <v>31.4</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="Z34" t="n">
-        <v>764</v>
+        <v>6009</v>
       </c>
       <c r="AA34" t="n">
-        <v>54</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
